--- a/hieu/scratch.xlsx
+++ b/hieu/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihoan\local\workspace\github\IncrementalMining\hieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B5EDA2-FB19-4641-BBB7-B3CB9C5A444B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA60938-DB13-4E4A-99C4-9EFB6F6A94D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>#iter</t>
+  </si>
+  <si>
+    <t>gp</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -88,36 +102,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -127,6 +111,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -151,10 +146,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -183,12 +178,15 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
@@ -196,10 +194,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$12</c:f>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>57342</c:v>
                 </c:pt>
@@ -226,6 +224,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>60603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -234,6 +235,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DE26-4EE9-8229-B67EB52BC9CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dummy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>55677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F22-48C4-BD53-B77CC6E56C08}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -380,6 +496,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -984,16 +1131,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>102393</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564356</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>140493</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>602456</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1284,98 +1431,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C12"/>
+  <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B1">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2">
         <v>5</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>57342</v>
       </c>
+      <c r="D2">
+        <v>55677</v>
+      </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>57432</v>
       </c>
+      <c r="D3">
+        <v>57505</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>57555</v>
       </c>
+      <c r="D4">
+        <v>55369</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5">
         <v>30</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>57039</v>
       </c>
+      <c r="D5">
+        <v>56197</v>
+      </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6">
         <v>40</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>60240</v>
       </c>
+      <c r="D6">
+        <v>56063</v>
+      </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7">
         <v>50</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>55997</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8">
         <v>100</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>56856</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B8">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9">
         <v>150</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>61229</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B9">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10">
         <v>200</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>60603</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B10">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>250</v>
+      </c>
+      <c r="C11">
+        <v>59456</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B11">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B12">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14">
         <v>500</v>
       </c>
     </row>

--- a/hieu/scratch.xlsx
+++ b/hieu/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihoan\local\workspace\github\IncrementalMining\hieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA60938-DB13-4E4A-99C4-9EFB6F6A94D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520258D6-6F95-4069-94F8-276C015C47C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,6 +342,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>56063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,7 +1437,7 @@
   <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1512,6 +1515,9 @@
       <c r="C7">
         <v>55997</v>
       </c>
+      <c r="D7">
+        <v>58045</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8">

--- a/hieu/scratch.xlsx
+++ b/hieu/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihoan\local\workspace\github\IncrementalMining\hieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520258D6-6F95-4069-94F8-276C015C47C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49FA787-094A-45A1-85D9-BA058BF05DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.104580927384077"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.85752580927384092"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -227,6 +237,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>59456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,6 +514,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83944006999125109"/>
+          <c:y val="0.72280037911927697"/>
+          <c:w val="0.12167104111986002"/>
+          <c:h val="0.15625109361329834"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1437,7 +1460,7 @@
   <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1555,6 +1578,9 @@
       <c r="B12">
         <v>300</v>
       </c>
+      <c r="C12">
+        <v>61039</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13">

--- a/hieu/scratch.xlsx
+++ b/hieu/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihoan\local\workspace\github\IncrementalMining\hieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49FA787-094A-45A1-85D9-BA058BF05DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A040069-23E5-4723-99A7-DD11A195D32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,10 +156,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -179,24 +179,27 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
@@ -204,10 +207,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:f>Sheet1!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>57342</c:v>
                 </c:pt>
@@ -227,18 +230,21 @@
                   <c:v>55997</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>58673</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>56856</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>61229</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>60603</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>59456</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>61039</c:v>
                 </c:pt>
               </c:numCache>
@@ -289,10 +295,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -312,24 +318,27 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
@@ -337,10 +346,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$14</c:f>
+              <c:f>Sheet1!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>55677</c:v>
                 </c:pt>
@@ -358,6 +367,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>58045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D14"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1544,51 +1556,62 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>56856</v>
+        <v>58673</v>
+      </c>
+      <c r="D8">
+        <v>60073</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>61229</v>
+        <v>56856</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C10">
-        <v>60603</v>
+        <v>61229</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C11">
-        <v>59456</v>
+        <v>60603</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C12">
-        <v>61039</v>
+        <v>59456</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13">
-        <v>400</v>
+        <v>300</v>
+      </c>
+      <c r="C13">
+        <v>61039</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15">
         <v>500</v>
       </c>
     </row>

--- a/hieu/scratch.xlsx
+++ b/hieu/scratch.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihoan\local\workspace\github\IncrementalMining\hieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A040069-23E5-4723-99A7-DD11A195D32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC9EAD4-9E7A-431D-BCDB-3E252AF2D30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$R$2:$R$51</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$Q$2:$Q$51</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -247,6 +251,12 @@
                 <c:pt idx="11">
                   <c:v>61039</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>62845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60746</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -370,6 +380,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>60073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58034</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58374</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -609,7 +637,155 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{40604AB9-4359-407A-9665-567F62F7690A}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{542F9943-C6F7-47AE-A9C5-6E9DFAFE3F5B}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1165,6 +1341,1022 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1201,6 +2393,162 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>183356</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>221456</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0551F345-CE71-BA9F-8F14-24A503797BE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4717256" y="4729162"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254793</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292893</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F7E318-EBAC-5F19-8669-54B3B0E88093}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4788693" y="7696199"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1469,15 +2817,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D15"/>
+  <dimension ref="B1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +2836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>5</v>
       </c>
@@ -1498,8 +2846,14 @@
       <c r="D2">
         <v>55677</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="Q2">
+        <v>55634</v>
+      </c>
+      <c r="R2">
+        <v>47106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>10</v>
       </c>
@@ -1509,8 +2863,14 @@
       <c r="D3">
         <v>57505</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="Q3">
+        <v>54942</v>
+      </c>
+      <c r="R3">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>20</v>
       </c>
@@ -1520,8 +2880,14 @@
       <c r="D4">
         <v>55369</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="Q4">
+        <v>57092</v>
+      </c>
+      <c r="R4">
+        <v>52405</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>30</v>
       </c>
@@ -1531,8 +2897,14 @@
       <c r="D5">
         <v>56197</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="Q5">
+        <v>54565</v>
+      </c>
+      <c r="R5">
+        <v>36620</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>40</v>
       </c>
@@ -1542,8 +2914,14 @@
       <c r="D6">
         <v>56063</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="Q6">
+        <v>56607</v>
+      </c>
+      <c r="R6">
+        <v>49457</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>50</v>
       </c>
@@ -1553,8 +2931,14 @@
       <c r="D7">
         <v>58045</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="Q7">
+        <v>55080</v>
+      </c>
+      <c r="R7">
+        <v>39822</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>70</v>
       </c>
@@ -1564,55 +2948,415 @@
       <c r="D8">
         <v>60073</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="Q8">
+        <v>57932</v>
+      </c>
+      <c r="R8">
+        <v>53491</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>100</v>
       </c>
       <c r="C9">
         <v>56856</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D9">
+        <v>57906</v>
+      </c>
+      <c r="Q9">
+        <v>62075</v>
+      </c>
+      <c r="R9">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>150</v>
       </c>
       <c r="C10">
         <v>61229</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D10">
+        <v>58865</v>
+      </c>
+      <c r="Q10">
+        <v>57794</v>
+      </c>
+      <c r="R10">
+        <v>42791</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>200</v>
       </c>
       <c r="C11">
         <v>60603</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D11">
+        <v>60028</v>
+      </c>
+      <c r="Q11">
+        <v>56856</v>
+      </c>
+      <c r="R11">
+        <v>48599</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>250</v>
       </c>
       <c r="C12">
         <v>59456</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <v>58034</v>
+      </c>
+      <c r="Q12">
+        <v>57039</v>
+      </c>
+      <c r="R12">
+        <v>47320</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>300</v>
       </c>
       <c r="C13">
         <v>61039</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D13">
+        <v>58374</v>
+      </c>
+      <c r="Q13">
+        <v>55706</v>
+      </c>
+      <c r="R13">
+        <v>53442</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C14">
+        <v>62845</v>
+      </c>
+      <c r="D14">
+        <v>59454</v>
+      </c>
+      <c r="Q14">
+        <v>58760</v>
+      </c>
+      <c r="R14">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>500</v>
+      </c>
+      <c r="C15">
+        <v>60746</v>
+      </c>
+      <c r="Q15">
+        <v>57478</v>
+      </c>
+      <c r="R15">
+        <v>39919</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="Q16">
+        <v>57722</v>
+      </c>
+      <c r="R16">
+        <v>33824</v>
+      </c>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q17">
+        <v>56022</v>
+      </c>
+      <c r="R17">
+        <v>39050</v>
+      </c>
+    </row>
+    <row r="18" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q18">
+        <v>57993</v>
+      </c>
+      <c r="R18">
+        <v>51469</v>
+      </c>
+    </row>
+    <row r="19" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q19">
+        <v>55761</v>
+      </c>
+      <c r="R19">
+        <v>52570</v>
+      </c>
+    </row>
+    <row r="20" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q20">
+        <v>58016</v>
+      </c>
+      <c r="R20">
+        <v>54357</v>
+      </c>
+    </row>
+    <row r="21" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q21">
+        <v>55896</v>
+      </c>
+      <c r="R21">
+        <v>40664</v>
+      </c>
+    </row>
+    <row r="22" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q22">
+        <v>57959</v>
+      </c>
+      <c r="R22">
+        <v>40247</v>
+      </c>
+    </row>
+    <row r="23" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q23">
+        <v>57885</v>
+      </c>
+      <c r="R23">
+        <v>48528</v>
+      </c>
+    </row>
+    <row r="24" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q24">
+        <v>57661</v>
+      </c>
+      <c r="R24">
+        <v>49684</v>
+      </c>
+    </row>
+    <row r="25" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q25">
+        <v>58417</v>
+      </c>
+      <c r="R25">
+        <v>37265</v>
+      </c>
+    </row>
+    <row r="26" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q26">
+        <v>57412</v>
+      </c>
+      <c r="R26">
+        <v>50047</v>
+      </c>
+    </row>
+    <row r="27" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q27">
+        <v>57116</v>
+      </c>
+      <c r="R27">
+        <v>36136</v>
+      </c>
+    </row>
+    <row r="28" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q28">
+        <v>57383</v>
+      </c>
+      <c r="R28">
+        <v>36046</v>
+      </c>
+    </row>
+    <row r="29" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q29">
+        <v>55489</v>
+      </c>
+      <c r="R29">
+        <v>43093</v>
+      </c>
+    </row>
+    <row r="30" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q30">
+        <v>57763</v>
+      </c>
+      <c r="R30">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="31" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q31">
+        <v>52626</v>
+      </c>
+      <c r="R31">
+        <v>51219</v>
+      </c>
+    </row>
+    <row r="32" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q32">
+        <v>59173</v>
+      </c>
+      <c r="R32">
+        <v>46123</v>
+      </c>
+    </row>
+    <row r="33" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q33">
+        <v>56881</v>
+      </c>
+      <c r="R33">
+        <v>40288</v>
+      </c>
+    </row>
+    <row r="34" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q34">
+        <v>56207</v>
+      </c>
+      <c r="R34">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="35" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q35">
+        <v>58746</v>
+      </c>
+      <c r="R35">
+        <v>42494</v>
+      </c>
+    </row>
+    <row r="36" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q36">
+        <v>61387</v>
+      </c>
+      <c r="R36">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="37" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q37">
+        <v>54851</v>
+      </c>
+      <c r="R37">
+        <v>36394</v>
+      </c>
+    </row>
+    <row r="38" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q38">
+        <v>53387</v>
+      </c>
+      <c r="R38">
+        <v>47377</v>
+      </c>
+    </row>
+    <row r="39" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q39">
+        <v>58340</v>
+      </c>
+      <c r="R39">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="40" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q40">
+        <v>55269</v>
+      </c>
+      <c r="R40">
+        <v>38584</v>
+      </c>
+    </row>
+    <row r="41" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q41">
+        <v>54675</v>
+      </c>
+      <c r="R41">
+        <v>47587</v>
+      </c>
+    </row>
+    <row r="42" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q42">
+        <v>56114</v>
+      </c>
+      <c r="R42">
+        <v>40579</v>
+      </c>
+    </row>
+    <row r="43" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q43">
+        <v>56364</v>
+      </c>
+      <c r="R43">
+        <v>52466</v>
+      </c>
+    </row>
+    <row r="44" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q44">
+        <v>58491</v>
+      </c>
+      <c r="R44">
+        <v>47948</v>
+      </c>
+    </row>
+    <row r="45" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q45">
+        <v>55620</v>
+      </c>
+      <c r="R45">
+        <v>51887</v>
+      </c>
+    </row>
+    <row r="46" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q46">
+        <v>56517</v>
+      </c>
+      <c r="R46">
+        <v>50173</v>
+      </c>
+    </row>
+    <row r="47" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q47">
+        <v>49875</v>
+      </c>
+      <c r="R47">
+        <v>46994</v>
+      </c>
+    </row>
+    <row r="48" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q48">
+        <v>54846</v>
+      </c>
+      <c r="R48">
+        <v>43003</v>
+      </c>
+    </row>
+    <row r="49" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q49">
+        <v>55355</v>
+      </c>
+      <c r="R49">
+        <v>38972</v>
+      </c>
+    </row>
+    <row r="50" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q50">
+        <v>61666</v>
+      </c>
+      <c r="R50">
+        <v>51877</v>
+      </c>
+    </row>
+    <row r="51" spans="17:18" x14ac:dyDescent="0.45">
+      <c r="Q51">
+        <v>55725</v>
+      </c>
+      <c r="R51">
+        <v>40328</v>
       </c>
     </row>
   </sheetData>

--- a/hieu/scratch.xlsx
+++ b/hieu/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihoan\local\workspace\github\IncrementalMining\hieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC9EAD4-9E7A-431D-BCDB-3E252AF2D30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6565C29-13C4-4E4B-B4AC-6C76977A4292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$R$2:$R$51</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$Q$2:$Q$51</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$V$2:$V$101</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$U$2:$U$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>#iter</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>dummy</t>
+  </si>
+  <si>
+    <t>gp rang1k</t>
+  </si>
+  <si>
+    <t>dummy 1k</t>
   </si>
 </sst>
 </file>
@@ -398,6 +404,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>59454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,7 +659,7 @@
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{40604AB9-4359-407A-9665-567F62F7690A}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{E37603E9-BF44-4319-97FF-B3BFB0947B17}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
@@ -684,7 +693,7 @@
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{542F9943-C6F7-47AE-A9C5-6E9DFAFE3F5B}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{CFAC3968-0ECF-4C74-AAB1-2C447F0A6C15}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
@@ -2361,16 +2370,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>564356</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45244</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>602456</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2397,25 +2406,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>183356</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>592931</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>221456</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Chart 2">
+            <xdr:cNvPr id="4" name="Chart 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0551F345-CE71-BA9F-8F14-24A503797BE6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D994214-AFA7-F8A1-E285-65BB0B8B734C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2442,7 +2451,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4717256" y="4729162"/>
+              <a:off x="7717631" y="3295650"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2475,25 +2484,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254793</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>569118</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>292893</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Chart 4">
+            <xdr:cNvPr id="6" name="Chart 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F7E318-EBAC-5F19-8669-54B3B0E88093}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37F27A3-9BDB-6E11-0B21-81FA9D2172F8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2520,7 +2529,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4788693" y="7696199"/>
+              <a:off x="7693818" y="6234112"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2817,15 +2826,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R51"/>
+  <dimension ref="B1:V101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2835,8 +2844,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>5</v>
       </c>
@@ -2846,14 +2861,20 @@
       <c r="D2">
         <v>55677</v>
       </c>
-      <c r="Q2">
+      <c r="E2">
+        <v>50332</v>
+      </c>
+      <c r="F2">
+        <v>52455</v>
+      </c>
+      <c r="U2">
         <v>55634</v>
       </c>
-      <c r="R2">
+      <c r="V2">
         <v>47106</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>10</v>
       </c>
@@ -2863,14 +2884,20 @@
       <c r="D3">
         <v>57505</v>
       </c>
-      <c r="Q3">
+      <c r="E3">
+        <v>58195</v>
+      </c>
+      <c r="F3">
+        <v>53324</v>
+      </c>
+      <c r="U3">
         <v>54942</v>
       </c>
-      <c r="R3">
+      <c r="V3">
         <v>44990</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>20</v>
       </c>
@@ -2880,14 +2907,20 @@
       <c r="D4">
         <v>55369</v>
       </c>
-      <c r="Q4">
+      <c r="E4">
+        <v>60431</v>
+      </c>
+      <c r="F4">
+        <v>57132</v>
+      </c>
+      <c r="U4">
         <v>57092</v>
       </c>
-      <c r="R4">
+      <c r="V4">
         <v>52405</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>30</v>
       </c>
@@ -2897,14 +2930,20 @@
       <c r="D5">
         <v>56197</v>
       </c>
-      <c r="Q5">
+      <c r="E5">
+        <v>62606</v>
+      </c>
+      <c r="F5">
+        <v>58297</v>
+      </c>
+      <c r="U5">
         <v>54565</v>
       </c>
-      <c r="R5">
+      <c r="V5">
         <v>36620</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>40</v>
       </c>
@@ -2914,14 +2953,20 @@
       <c r="D6">
         <v>56063</v>
       </c>
-      <c r="Q6">
+      <c r="E6">
+        <v>58323</v>
+      </c>
+      <c r="F6">
+        <v>57196</v>
+      </c>
+      <c r="U6">
         <v>56607</v>
       </c>
-      <c r="R6">
+      <c r="V6">
         <v>49457</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>50</v>
       </c>
@@ -2931,14 +2976,20 @@
       <c r="D7">
         <v>58045</v>
       </c>
-      <c r="Q7">
+      <c r="E7">
+        <v>57620</v>
+      </c>
+      <c r="F7">
+        <v>59259</v>
+      </c>
+      <c r="U7">
         <v>55080</v>
       </c>
-      <c r="R7">
+      <c r="V7">
         <v>39822</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>70</v>
       </c>
@@ -2948,14 +2999,20 @@
       <c r="D8">
         <v>60073</v>
       </c>
-      <c r="Q8">
+      <c r="E8">
+        <v>58764</v>
+      </c>
+      <c r="F8">
+        <v>58618</v>
+      </c>
+      <c r="U8">
         <v>57932</v>
       </c>
-      <c r="R8">
+      <c r="V8">
         <v>53491</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>100</v>
       </c>
@@ -2965,14 +3022,20 @@
       <c r="D9">
         <v>57906</v>
       </c>
-      <c r="Q9">
+      <c r="E9">
+        <v>60169</v>
+      </c>
+      <c r="F9">
+        <v>60169</v>
+      </c>
+      <c r="U9">
         <v>62075</v>
       </c>
-      <c r="R9">
+      <c r="V9">
         <v>45528</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>150</v>
       </c>
@@ -2982,14 +3045,20 @@
       <c r="D10">
         <v>58865</v>
       </c>
-      <c r="Q10">
+      <c r="E10">
+        <v>62622</v>
+      </c>
+      <c r="F10">
+        <v>57817</v>
+      </c>
+      <c r="U10">
         <v>57794</v>
       </c>
-      <c r="R10">
+      <c r="V10">
         <v>42791</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>200</v>
       </c>
@@ -2999,14 +3068,20 @@
       <c r="D11">
         <v>60028</v>
       </c>
-      <c r="Q11">
+      <c r="E11">
+        <v>58179</v>
+      </c>
+      <c r="F11">
+        <v>60977</v>
+      </c>
+      <c r="U11">
         <v>56856</v>
       </c>
-      <c r="R11">
+      <c r="V11">
         <v>48599</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>250</v>
       </c>
@@ -3016,14 +3091,20 @@
       <c r="D12">
         <v>58034</v>
       </c>
-      <c r="Q12">
+      <c r="E12">
+        <v>61027</v>
+      </c>
+      <c r="F12">
+        <v>58115</v>
+      </c>
+      <c r="U12">
         <v>57039</v>
       </c>
-      <c r="R12">
+      <c r="V12">
         <v>47320</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>300</v>
       </c>
@@ -3033,14 +3114,14 @@
       <c r="D13">
         <v>58374</v>
       </c>
-      <c r="Q13">
+      <c r="U13">
         <v>55706</v>
       </c>
-      <c r="R13">
+      <c r="V13">
         <v>53442</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>400</v>
       </c>
@@ -3050,313 +3131,716 @@
       <c r="D14">
         <v>59454</v>
       </c>
-      <c r="Q14">
+      <c r="U14">
         <v>58760</v>
       </c>
-      <c r="R14">
+      <c r="V14">
         <v>45820</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>500</v>
       </c>
       <c r="C15">
         <v>60746</v>
       </c>
-      <c r="Q15">
+      <c r="D15">
+        <v>59361</v>
+      </c>
+      <c r="U15">
         <v>57478</v>
       </c>
-      <c r="R15">
+      <c r="V15">
         <v>39919</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="Q16">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="U16">
         <v>57722</v>
       </c>
-      <c r="R16">
+      <c r="V16">
         <v>33824</v>
       </c>
     </row>
-    <row r="17" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q17">
+    <row r="17" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U17">
         <v>56022</v>
       </c>
-      <c r="R17">
+      <c r="V17">
         <v>39050</v>
       </c>
     </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q18">
+    <row r="18" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U18">
         <v>57993</v>
       </c>
-      <c r="R18">
+      <c r="V18">
         <v>51469</v>
       </c>
     </row>
-    <row r="19" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q19">
+    <row r="19" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U19">
         <v>55761</v>
       </c>
-      <c r="R19">
+      <c r="V19">
         <v>52570</v>
       </c>
     </row>
-    <row r="20" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q20">
+    <row r="20" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U20">
         <v>58016</v>
       </c>
-      <c r="R20">
+      <c r="V20">
         <v>54357</v>
       </c>
     </row>
-    <row r="21" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q21">
+    <row r="21" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U21">
         <v>55896</v>
       </c>
-      <c r="R21">
+      <c r="V21">
         <v>40664</v>
       </c>
     </row>
-    <row r="22" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q22">
+    <row r="22" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U22">
         <v>57959</v>
       </c>
-      <c r="R22">
+      <c r="V22">
         <v>40247</v>
       </c>
     </row>
-    <row r="23" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q23">
+    <row r="23" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U23">
         <v>57885</v>
       </c>
-      <c r="R23">
+      <c r="V23">
         <v>48528</v>
       </c>
     </row>
-    <row r="24" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q24">
+    <row r="24" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U24">
         <v>57661</v>
       </c>
-      <c r="R24">
+      <c r="V24">
         <v>49684</v>
       </c>
     </row>
-    <row r="25" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q25">
+    <row r="25" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U25">
         <v>58417</v>
       </c>
-      <c r="R25">
+      <c r="V25">
         <v>37265</v>
       </c>
     </row>
-    <row r="26" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q26">
+    <row r="26" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U26">
         <v>57412</v>
       </c>
-      <c r="R26">
+      <c r="V26">
         <v>50047</v>
       </c>
     </row>
-    <row r="27" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q27">
+    <row r="27" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U27">
         <v>57116</v>
       </c>
-      <c r="R27">
+      <c r="V27">
         <v>36136</v>
       </c>
     </row>
-    <row r="28" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q28">
+    <row r="28" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U28">
         <v>57383</v>
       </c>
-      <c r="R28">
+      <c r="V28">
         <v>36046</v>
       </c>
     </row>
-    <row r="29" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q29">
+    <row r="29" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U29">
         <v>55489</v>
       </c>
-      <c r="R29">
+      <c r="V29">
         <v>43093</v>
       </c>
     </row>
-    <row r="30" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q30">
+    <row r="30" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U30">
         <v>57763</v>
       </c>
-      <c r="R30">
+      <c r="V30">
         <v>43125</v>
       </c>
     </row>
-    <row r="31" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q31">
+    <row r="31" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U31">
         <v>52626</v>
       </c>
-      <c r="R31">
+      <c r="V31">
         <v>51219</v>
       </c>
     </row>
-    <row r="32" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q32">
+    <row r="32" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U32">
         <v>59173</v>
       </c>
-      <c r="R32">
+      <c r="V32">
         <v>46123</v>
       </c>
     </row>
-    <row r="33" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q33">
+    <row r="33" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U33">
         <v>56881</v>
       </c>
-      <c r="R33">
+      <c r="V33">
         <v>40288</v>
       </c>
     </row>
-    <row r="34" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q34">
+    <row r="34" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U34">
         <v>56207</v>
       </c>
-      <c r="R34">
+      <c r="V34">
         <v>43555</v>
       </c>
     </row>
-    <row r="35" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q35">
+    <row r="35" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U35">
         <v>58746</v>
       </c>
-      <c r="R35">
+      <c r="V35">
         <v>42494</v>
       </c>
     </row>
-    <row r="36" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q36">
+    <row r="36" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U36">
         <v>61387</v>
       </c>
-      <c r="R36">
+      <c r="V36">
         <v>43462</v>
       </c>
     </row>
-    <row r="37" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q37">
+    <row r="37" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U37">
         <v>54851</v>
       </c>
-      <c r="R37">
+      <c r="V37">
         <v>36394</v>
       </c>
     </row>
-    <row r="38" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q38">
+    <row r="38" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U38">
         <v>53387</v>
       </c>
-      <c r="R38">
+      <c r="V38">
         <v>47377</v>
       </c>
     </row>
-    <row r="39" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q39">
+    <row r="39" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U39">
         <v>58340</v>
       </c>
-      <c r="R39">
+      <c r="V39">
         <v>45296</v>
       </c>
     </row>
-    <row r="40" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q40">
+    <row r="40" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U40">
         <v>55269</v>
       </c>
-      <c r="R40">
+      <c r="V40">
         <v>38584</v>
       </c>
     </row>
-    <row r="41" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q41">
+    <row r="41" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U41">
         <v>54675</v>
       </c>
-      <c r="R41">
+      <c r="V41">
         <v>47587</v>
       </c>
     </row>
-    <row r="42" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q42">
+    <row r="42" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U42">
         <v>56114</v>
       </c>
-      <c r="R42">
+      <c r="V42">
         <v>40579</v>
       </c>
     </row>
-    <row r="43" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q43">
+    <row r="43" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U43">
         <v>56364</v>
       </c>
-      <c r="R43">
+      <c r="V43">
         <v>52466</v>
       </c>
     </row>
-    <row r="44" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q44">
+    <row r="44" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U44">
         <v>58491</v>
       </c>
-      <c r="R44">
+      <c r="V44">
         <v>47948</v>
       </c>
     </row>
-    <row r="45" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q45">
+    <row r="45" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U45">
         <v>55620</v>
       </c>
-      <c r="R45">
+      <c r="V45">
         <v>51887</v>
       </c>
     </row>
-    <row r="46" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q46">
+    <row r="46" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U46">
         <v>56517</v>
       </c>
-      <c r="R46">
+      <c r="V46">
         <v>50173</v>
       </c>
     </row>
-    <row r="47" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q47">
+    <row r="47" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U47">
         <v>49875</v>
       </c>
-      <c r="R47">
+      <c r="V47">
         <v>46994</v>
       </c>
     </row>
-    <row r="48" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q48">
+    <row r="48" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U48">
         <v>54846</v>
       </c>
-      <c r="R48">
+      <c r="V48">
         <v>43003</v>
       </c>
     </row>
-    <row r="49" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q49">
+    <row r="49" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U49">
         <v>55355</v>
       </c>
-      <c r="R49">
+      <c r="V49">
         <v>38972</v>
       </c>
     </row>
-    <row r="50" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q50">
+    <row r="50" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U50">
         <v>61666</v>
       </c>
-      <c r="R50">
+      <c r="V50">
         <v>51877</v>
       </c>
     </row>
-    <row r="51" spans="17:18" x14ac:dyDescent="0.45">
-      <c r="Q51">
+    <row r="51" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U51">
         <v>55725</v>
       </c>
-      <c r="R51">
+      <c r="V51">
         <v>40328</v>
+      </c>
+    </row>
+    <row r="52" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U52">
+        <v>54924</v>
+      </c>
+      <c r="V52">
+        <v>48008</v>
+      </c>
+    </row>
+    <row r="53" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U53">
+        <v>56858</v>
+      </c>
+      <c r="V53">
+        <v>47747</v>
+      </c>
+    </row>
+    <row r="54" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U54">
+        <v>57271</v>
+      </c>
+      <c r="V54">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="55" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U55">
+        <v>56780</v>
+      </c>
+      <c r="V55">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="56" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U56">
+        <v>57838</v>
+      </c>
+      <c r="V56">
+        <v>45192</v>
+      </c>
+    </row>
+    <row r="57" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U57">
+        <v>53454</v>
+      </c>
+      <c r="V57">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="58" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U58">
+        <v>56414</v>
+      </c>
+      <c r="V58">
+        <v>49811</v>
+      </c>
+    </row>
+    <row r="59" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U59">
+        <v>57572</v>
+      </c>
+      <c r="V59">
+        <v>37128</v>
+      </c>
+    </row>
+    <row r="60" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U60">
+        <v>56918</v>
+      </c>
+      <c r="V60">
+        <v>43168</v>
+      </c>
+    </row>
+    <row r="61" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U61">
+        <v>58248</v>
+      </c>
+      <c r="V61">
+        <v>51199</v>
+      </c>
+    </row>
+    <row r="62" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U62">
+        <v>56300</v>
+      </c>
+      <c r="V62">
+        <v>35810</v>
+      </c>
+    </row>
+    <row r="63" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U63">
+        <v>54744</v>
+      </c>
+      <c r="V63">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="64" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U64">
+        <v>53365</v>
+      </c>
+      <c r="V64">
+        <v>54738</v>
+      </c>
+    </row>
+    <row r="65" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U65">
+        <v>55885</v>
+      </c>
+      <c r="V65">
+        <v>49554</v>
+      </c>
+    </row>
+    <row r="66" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U66">
+        <v>60281</v>
+      </c>
+      <c r="V66">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="67" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U67">
+        <v>56351</v>
+      </c>
+      <c r="V67">
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="68" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U68">
+        <v>56765</v>
+      </c>
+      <c r="V68">
+        <v>43459</v>
+      </c>
+    </row>
+    <row r="69" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U69">
+        <v>57520</v>
+      </c>
+      <c r="V69">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="70" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U70">
+        <v>57112</v>
+      </c>
+      <c r="V70">
+        <v>43710</v>
+      </c>
+    </row>
+    <row r="71" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U71">
+        <v>58085</v>
+      </c>
+      <c r="V71">
+        <v>41932</v>
+      </c>
+    </row>
+    <row r="72" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U72">
+        <v>57028</v>
+      </c>
+      <c r="V72">
+        <v>48617</v>
+      </c>
+    </row>
+    <row r="73" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U73">
+        <v>58889</v>
+      </c>
+      <c r="V73">
+        <v>41035</v>
+      </c>
+    </row>
+    <row r="74" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U74">
+        <v>57741</v>
+      </c>
+      <c r="V74">
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="75" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U75">
+        <v>54580</v>
+      </c>
+      <c r="V75">
+        <v>47413</v>
+      </c>
+    </row>
+    <row r="76" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U76">
+        <v>61114</v>
+      </c>
+      <c r="V76">
+        <v>39051</v>
+      </c>
+    </row>
+    <row r="77" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U77">
+        <v>55666</v>
+      </c>
+      <c r="V77">
+        <v>40205</v>
+      </c>
+    </row>
+    <row r="78" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U78">
+        <v>55700</v>
+      </c>
+      <c r="V78">
+        <v>51716</v>
+      </c>
+    </row>
+    <row r="79" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U79">
+        <v>60131</v>
+      </c>
+      <c r="V79">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="80" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U80">
+        <v>59941</v>
+      </c>
+      <c r="V80">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="81" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U81">
+        <v>56364</v>
+      </c>
+      <c r="V81">
+        <v>47198</v>
+      </c>
+    </row>
+    <row r="82" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U82">
+        <v>55314</v>
+      </c>
+      <c r="V82">
+        <v>52056</v>
+      </c>
+    </row>
+    <row r="83" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U83">
+        <v>58646</v>
+      </c>
+      <c r="V83">
+        <v>48704</v>
+      </c>
+    </row>
+    <row r="84" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U84">
+        <v>56437</v>
+      </c>
+      <c r="V84">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="85" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U85">
+        <v>55111</v>
+      </c>
+      <c r="V85">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="86" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U86">
+        <v>60837</v>
+      </c>
+      <c r="V86">
+        <v>39226</v>
+      </c>
+    </row>
+    <row r="87" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U87">
+        <v>58664</v>
+      </c>
+      <c r="V87">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="88" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U88">
+        <v>55916</v>
+      </c>
+      <c r="V88">
+        <v>47357</v>
+      </c>
+    </row>
+    <row r="89" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U89">
+        <v>61141</v>
+      </c>
+      <c r="V89">
+        <v>50522</v>
+      </c>
+    </row>
+    <row r="90" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U90">
+        <v>55696</v>
+      </c>
+      <c r="V90">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="91" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U91">
+        <v>58827</v>
+      </c>
+      <c r="V91">
+        <v>41364</v>
+      </c>
+    </row>
+    <row r="92" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U92">
+        <v>58250</v>
+      </c>
+      <c r="V92">
+        <v>49895</v>
+      </c>
+    </row>
+    <row r="93" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U93">
+        <v>57918</v>
+      </c>
+      <c r="V93">
+        <v>37620</v>
+      </c>
+    </row>
+    <row r="94" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U94">
+        <v>55852</v>
+      </c>
+      <c r="V94">
+        <v>46167</v>
+      </c>
+    </row>
+    <row r="95" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U95">
+        <v>56510</v>
+      </c>
+      <c r="V95">
+        <v>52203</v>
+      </c>
+    </row>
+    <row r="96" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U96">
+        <v>60132</v>
+      </c>
+      <c r="V96">
+        <v>35356</v>
+      </c>
+    </row>
+    <row r="97" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U97">
+        <v>59970</v>
+      </c>
+      <c r="V97">
+        <v>48696</v>
+      </c>
+    </row>
+    <row r="98" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U98">
+        <v>54780</v>
+      </c>
+      <c r="V98">
+        <v>41995</v>
+      </c>
+    </row>
+    <row r="99" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U99">
+        <v>53790</v>
+      </c>
+      <c r="V99">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="100" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U100">
+        <v>58523</v>
+      </c>
+      <c r="V100">
+        <v>41066</v>
+      </c>
+    </row>
+    <row r="101" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U101">
+        <v>58164</v>
+      </c>
+      <c r="V101">
+        <v>47729</v>
       </c>
     </row>
   </sheetData>

--- a/hieu/scratch.xlsx
+++ b/hieu/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihoan\local\workspace\github\IncrementalMining\hieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6565C29-13C4-4E4B-B4AC-6C76977A4292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4E39B6-C20A-469C-ADB4-316129CC9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2829,7 +2829,7 @@
   <dimension ref="B1:V101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3114,6 +3114,12 @@
       <c r="D13">
         <v>58374</v>
       </c>
+      <c r="E13">
+        <v>60572</v>
+      </c>
+      <c r="F13">
+        <v>61115</v>
+      </c>
       <c r="U13">
         <v>55706</v>
       </c>
@@ -3131,6 +3137,12 @@
       <c r="D14">
         <v>59454</v>
       </c>
+      <c r="E14">
+        <v>61986</v>
+      </c>
+      <c r="F14">
+        <v>58694</v>
+      </c>
       <c r="U14">
         <v>58760</v>
       </c>
@@ -3147,6 +3159,12 @@
       </c>
       <c r="D15">
         <v>59361</v>
+      </c>
+      <c r="E15">
+        <v>58967</v>
+      </c>
+      <c r="F15">
+        <v>59746</v>
       </c>
       <c r="U15">
         <v>57478</v>

--- a/hieu/scratch.xlsx
+++ b/hieu/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihoan\local\workspace\github\IncrementalMining\hieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4E39B6-C20A-469C-ADB4-316129CC9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D280DF-38EC-4111-A05F-FB778BEA79B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$V$2:$V$101</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$U$2:$U$101</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$V$2:$V$501</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$U$2:$U$501</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2826,10 +2826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V101"/>
+  <dimension ref="B1:V501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3174,6 +3174,15 @@
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>700</v>
+      </c>
+      <c r="C16">
+        <v>59191</v>
+      </c>
+      <c r="D16">
+        <v>59875</v>
+      </c>
       <c r="U16">
         <v>57722</v>
       </c>
@@ -3181,7 +3190,16 @@
         <v>33824</v>
       </c>
     </row>
-    <row r="17" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>61798</v>
+      </c>
+      <c r="D17">
+        <v>61511</v>
+      </c>
       <c r="U17">
         <v>56022</v>
       </c>
@@ -3189,7 +3207,13 @@
         <v>39050</v>
       </c>
     </row>
-    <row r="18" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>1500</v>
+      </c>
+      <c r="D18">
+        <v>60168</v>
+      </c>
       <c r="U18">
         <v>57993</v>
       </c>
@@ -3197,7 +3221,7 @@
         <v>51469</v>
       </c>
     </row>
-    <row r="19" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U19">
         <v>55761</v>
       </c>
@@ -3205,7 +3229,7 @@
         <v>52570</v>
       </c>
     </row>
-    <row r="20" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U20">
         <v>58016</v>
       </c>
@@ -3213,7 +3237,7 @@
         <v>54357</v>
       </c>
     </row>
-    <row r="21" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U21">
         <v>55896</v>
       </c>
@@ -3221,7 +3245,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="22" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U22">
         <v>57959</v>
       </c>
@@ -3229,7 +3253,7 @@
         <v>40247</v>
       </c>
     </row>
-    <row r="23" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U23">
         <v>57885</v>
       </c>
@@ -3237,7 +3261,7 @@
         <v>48528</v>
       </c>
     </row>
-    <row r="24" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U24">
         <v>57661</v>
       </c>
@@ -3245,7 +3269,7 @@
         <v>49684</v>
       </c>
     </row>
-    <row r="25" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U25">
         <v>58417</v>
       </c>
@@ -3253,7 +3277,7 @@
         <v>37265</v>
       </c>
     </row>
-    <row r="26" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U26">
         <v>57412</v>
       </c>
@@ -3261,7 +3285,7 @@
         <v>50047</v>
       </c>
     </row>
-    <row r="27" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U27">
         <v>57116</v>
       </c>
@@ -3269,7 +3293,7 @@
         <v>36136</v>
       </c>
     </row>
-    <row r="28" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U28">
         <v>57383</v>
       </c>
@@ -3277,7 +3301,7 @@
         <v>36046</v>
       </c>
     </row>
-    <row r="29" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U29">
         <v>55489</v>
       </c>
@@ -3285,7 +3309,7 @@
         <v>43093</v>
       </c>
     </row>
-    <row r="30" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U30">
         <v>57763</v>
       </c>
@@ -3293,7 +3317,7 @@
         <v>43125</v>
       </c>
     </row>
-    <row r="31" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U31">
         <v>52626</v>
       </c>
@@ -3301,7 +3325,7 @@
         <v>51219</v>
       </c>
     </row>
-    <row r="32" spans="21:22" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
       <c r="U32">
         <v>59173</v>
       </c>
@@ -3859,6 +3883,3206 @@
       </c>
       <c r="V101">
         <v>47729</v>
+      </c>
+    </row>
+    <row r="102" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U102">
+        <v>56935</v>
+      </c>
+      <c r="V102">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="103" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U103">
+        <v>56292</v>
+      </c>
+      <c r="V103">
+        <v>46551</v>
+      </c>
+    </row>
+    <row r="104" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U104">
+        <v>58297</v>
+      </c>
+      <c r="V104">
+        <v>47334</v>
+      </c>
+    </row>
+    <row r="105" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U105">
+        <v>56777</v>
+      </c>
+      <c r="V105">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="106" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U106">
+        <v>59013</v>
+      </c>
+      <c r="V106">
+        <v>49354</v>
+      </c>
+    </row>
+    <row r="107" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U107">
+        <v>53762</v>
+      </c>
+      <c r="V107">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="108" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U108">
+        <v>57407</v>
+      </c>
+      <c r="V108">
+        <v>54930</v>
+      </c>
+    </row>
+    <row r="109" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U109">
+        <v>55301</v>
+      </c>
+      <c r="V109">
+        <v>37470</v>
+      </c>
+    </row>
+    <row r="110" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U110">
+        <v>60739</v>
+      </c>
+      <c r="V110">
+        <v>47507</v>
+      </c>
+    </row>
+    <row r="111" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U111">
+        <v>56379</v>
+      </c>
+      <c r="V111">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="112" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U112">
+        <v>59186</v>
+      </c>
+      <c r="V112">
+        <v>49106</v>
+      </c>
+    </row>
+    <row r="113" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U113">
+        <v>58072</v>
+      </c>
+      <c r="V113">
+        <v>50373</v>
+      </c>
+    </row>
+    <row r="114" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U114">
+        <v>58472</v>
+      </c>
+      <c r="V114">
+        <v>34399</v>
+      </c>
+    </row>
+    <row r="115" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U115">
+        <v>54193</v>
+      </c>
+      <c r="V115">
+        <v>36971</v>
+      </c>
+    </row>
+    <row r="116" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U116">
+        <v>53793</v>
+      </c>
+      <c r="V116">
+        <v>48166</v>
+      </c>
+    </row>
+    <row r="117" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U117">
+        <v>59146</v>
+      </c>
+      <c r="V117">
+        <v>39316</v>
+      </c>
+    </row>
+    <row r="118" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U118">
+        <v>61141</v>
+      </c>
+      <c r="V118">
+        <v>51271</v>
+      </c>
+    </row>
+    <row r="119" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U119">
+        <v>53880</v>
+      </c>
+      <c r="V119">
+        <v>42268</v>
+      </c>
+    </row>
+    <row r="120" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U120">
+        <v>57183</v>
+      </c>
+      <c r="V120">
+        <v>46818</v>
+      </c>
+    </row>
+    <row r="121" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U121">
+        <v>57403</v>
+      </c>
+      <c r="V121">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="122" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U122">
+        <v>60589</v>
+      </c>
+      <c r="V122">
+        <v>37377</v>
+      </c>
+    </row>
+    <row r="123" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U123">
+        <v>60037</v>
+      </c>
+      <c r="V123">
+        <v>41317</v>
+      </c>
+    </row>
+    <row r="124" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U124">
+        <v>54427</v>
+      </c>
+      <c r="V124">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="125" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U125">
+        <v>53334</v>
+      </c>
+      <c r="V125">
+        <v>47923</v>
+      </c>
+    </row>
+    <row r="126" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U126">
+        <v>54267</v>
+      </c>
+      <c r="V126">
+        <v>50387</v>
+      </c>
+    </row>
+    <row r="127" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U127">
+        <v>58856</v>
+      </c>
+      <c r="V127">
+        <v>41951</v>
+      </c>
+    </row>
+    <row r="128" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U128">
+        <v>58820</v>
+      </c>
+      <c r="V128">
+        <v>49529</v>
+      </c>
+    </row>
+    <row r="129" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U129">
+        <v>59347</v>
+      </c>
+      <c r="V129">
+        <v>43189</v>
+      </c>
+    </row>
+    <row r="130" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U130">
+        <v>54417</v>
+      </c>
+      <c r="V130">
+        <v>38287</v>
+      </c>
+    </row>
+    <row r="131" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U131">
+        <v>59154</v>
+      </c>
+      <c r="V131">
+        <v>51102</v>
+      </c>
+    </row>
+    <row r="132" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U132">
+        <v>56879</v>
+      </c>
+      <c r="V132">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="133" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U133">
+        <v>60177</v>
+      </c>
+      <c r="V133">
+        <v>49635</v>
+      </c>
+    </row>
+    <row r="134" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U134">
+        <v>58596</v>
+      </c>
+      <c r="V134">
+        <v>41393</v>
+      </c>
+    </row>
+    <row r="135" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U135">
+        <v>57182</v>
+      </c>
+      <c r="V135">
+        <v>52080</v>
+      </c>
+    </row>
+    <row r="136" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U136">
+        <v>56058</v>
+      </c>
+      <c r="V136">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="137" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U137">
+        <v>56028</v>
+      </c>
+      <c r="V137">
+        <v>40308</v>
+      </c>
+    </row>
+    <row r="138" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U138">
+        <v>60555</v>
+      </c>
+      <c r="V138">
+        <v>47247</v>
+      </c>
+    </row>
+    <row r="139" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U139">
+        <v>54317</v>
+      </c>
+      <c r="V139">
+        <v>52666</v>
+      </c>
+    </row>
+    <row r="140" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U140">
+        <v>55858</v>
+      </c>
+      <c r="V140">
+        <v>49374</v>
+      </c>
+    </row>
+    <row r="141" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U141">
+        <v>56709</v>
+      </c>
+      <c r="V141">
+        <v>48043</v>
+      </c>
+    </row>
+    <row r="142" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U142">
+        <v>59501</v>
+      </c>
+      <c r="V142">
+        <v>40205</v>
+      </c>
+    </row>
+    <row r="143" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U143">
+        <v>57350</v>
+      </c>
+      <c r="V143">
+        <v>48705</v>
+      </c>
+    </row>
+    <row r="144" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U144">
+        <v>54319</v>
+      </c>
+      <c r="V144">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="145" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U145">
+        <v>55090</v>
+      </c>
+      <c r="V145">
+        <v>49432</v>
+      </c>
+    </row>
+    <row r="146" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U146">
+        <v>59224</v>
+      </c>
+      <c r="V146">
+        <v>37282</v>
+      </c>
+    </row>
+    <row r="147" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U147">
+        <v>54293</v>
+      </c>
+      <c r="V147">
+        <v>51002</v>
+      </c>
+    </row>
+    <row r="148" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U148">
+        <v>56072</v>
+      </c>
+      <c r="V148">
+        <v>42229</v>
+      </c>
+    </row>
+    <row r="149" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U149">
+        <v>52902</v>
+      </c>
+      <c r="V149">
+        <v>40240</v>
+      </c>
+    </row>
+    <row r="150" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U150">
+        <v>53316</v>
+      </c>
+      <c r="V150">
+        <v>52490</v>
+      </c>
+    </row>
+    <row r="151" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U151">
+        <v>54648</v>
+      </c>
+      <c r="V151">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="152" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U152">
+        <v>55602</v>
+      </c>
+      <c r="V152">
+        <v>47135</v>
+      </c>
+    </row>
+    <row r="153" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U153">
+        <v>55006</v>
+      </c>
+      <c r="V153">
+        <v>50569</v>
+      </c>
+    </row>
+    <row r="154" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U154">
+        <v>53340</v>
+      </c>
+      <c r="V154">
+        <v>43315</v>
+      </c>
+    </row>
+    <row r="155" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U155">
+        <v>51404</v>
+      </c>
+      <c r="V155">
+        <v>37853</v>
+      </c>
+    </row>
+    <row r="156" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U156">
+        <v>58235</v>
+      </c>
+      <c r="V156">
+        <v>44156</v>
+      </c>
+    </row>
+    <row r="157" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U157">
+        <v>59304</v>
+      </c>
+      <c r="V157">
+        <v>40878</v>
+      </c>
+    </row>
+    <row r="158" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U158">
+        <v>55464</v>
+      </c>
+      <c r="V158">
+        <v>49360</v>
+      </c>
+    </row>
+    <row r="159" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U159">
+        <v>59086</v>
+      </c>
+      <c r="V159">
+        <v>50797</v>
+      </c>
+    </row>
+    <row r="160" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U160">
+        <v>58299</v>
+      </c>
+      <c r="V160">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="161" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U161">
+        <v>54809</v>
+      </c>
+      <c r="V161">
+        <v>49535</v>
+      </c>
+    </row>
+    <row r="162" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U162">
+        <v>52169</v>
+      </c>
+      <c r="V162">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="163" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U163">
+        <v>59696</v>
+      </c>
+      <c r="V163">
+        <v>51196</v>
+      </c>
+    </row>
+    <row r="164" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U164">
+        <v>56298</v>
+      </c>
+      <c r="V164">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="165" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U165">
+        <v>60041</v>
+      </c>
+      <c r="V165">
+        <v>42654</v>
+      </c>
+    </row>
+    <row r="166" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U166">
+        <v>58406</v>
+      </c>
+      <c r="V166">
+        <v>39924</v>
+      </c>
+    </row>
+    <row r="167" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U167">
+        <v>59572</v>
+      </c>
+      <c r="V167">
+        <v>37735</v>
+      </c>
+    </row>
+    <row r="168" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U168">
+        <v>59281</v>
+      </c>
+      <c r="V168">
+        <v>46019</v>
+      </c>
+    </row>
+    <row r="169" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U169">
+        <v>55848</v>
+      </c>
+      <c r="V169">
+        <v>54443</v>
+      </c>
+    </row>
+    <row r="170" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U170">
+        <v>55062</v>
+      </c>
+      <c r="V170">
+        <v>47050</v>
+      </c>
+    </row>
+    <row r="171" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U171">
+        <v>58339</v>
+      </c>
+      <c r="V171">
+        <v>52373</v>
+      </c>
+    </row>
+    <row r="172" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U172">
+        <v>58622</v>
+      </c>
+      <c r="V172">
+        <v>47863</v>
+      </c>
+    </row>
+    <row r="173" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U173">
+        <v>56533</v>
+      </c>
+      <c r="V173">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="174" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U174">
+        <v>53483</v>
+      </c>
+      <c r="V174">
+        <v>34393</v>
+      </c>
+    </row>
+    <row r="175" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U175">
+        <v>55558</v>
+      </c>
+      <c r="V175">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="176" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U176">
+        <v>62246</v>
+      </c>
+      <c r="V176">
+        <v>35681</v>
+      </c>
+    </row>
+    <row r="177" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U177">
+        <v>59993</v>
+      </c>
+      <c r="V177">
+        <v>47848</v>
+      </c>
+    </row>
+    <row r="178" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U178">
+        <v>56319</v>
+      </c>
+      <c r="V178">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="179" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U179">
+        <v>59187</v>
+      </c>
+      <c r="V179">
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="180" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U180">
+        <v>57953</v>
+      </c>
+      <c r="V180">
+        <v>47114</v>
+      </c>
+    </row>
+    <row r="181" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U181">
+        <v>55605</v>
+      </c>
+      <c r="V181">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="182" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U182">
+        <v>56221</v>
+      </c>
+      <c r="V182">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="183" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U183">
+        <v>57454</v>
+      </c>
+      <c r="V183">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="184" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U184">
+        <v>59634</v>
+      </c>
+      <c r="V184">
+        <v>46844</v>
+      </c>
+    </row>
+    <row r="185" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U185">
+        <v>57550</v>
+      </c>
+      <c r="V185">
+        <v>52780</v>
+      </c>
+    </row>
+    <row r="186" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U186">
+        <v>56499</v>
+      </c>
+      <c r="V186">
+        <v>40670</v>
+      </c>
+    </row>
+    <row r="187" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U187">
+        <v>59982</v>
+      </c>
+      <c r="V187">
+        <v>46984</v>
+      </c>
+    </row>
+    <row r="188" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U188">
+        <v>54258</v>
+      </c>
+      <c r="V188">
+        <v>41519</v>
+      </c>
+    </row>
+    <row r="189" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U189">
+        <v>58251</v>
+      </c>
+      <c r="V189">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="190" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U190">
+        <v>59714</v>
+      </c>
+      <c r="V190">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="191" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U191">
+        <v>56624</v>
+      </c>
+      <c r="V191">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="192" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U192">
+        <v>53510</v>
+      </c>
+      <c r="V192">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="193" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U193">
+        <v>59126</v>
+      </c>
+      <c r="V193">
+        <v>34679</v>
+      </c>
+    </row>
+    <row r="194" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U194">
+        <v>56942</v>
+      </c>
+      <c r="V194">
+        <v>48200</v>
+      </c>
+    </row>
+    <row r="195" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U195">
+        <v>60105</v>
+      </c>
+      <c r="V195">
+        <v>50401</v>
+      </c>
+    </row>
+    <row r="196" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U196">
+        <v>52721</v>
+      </c>
+      <c r="V196">
+        <v>45283</v>
+      </c>
+    </row>
+    <row r="197" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U197">
+        <v>62748</v>
+      </c>
+      <c r="V197">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="198" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U198">
+        <v>60519</v>
+      </c>
+      <c r="V198">
+        <v>42524</v>
+      </c>
+    </row>
+    <row r="199" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U199">
+        <v>57306</v>
+      </c>
+      <c r="V199">
+        <v>52016</v>
+      </c>
+    </row>
+    <row r="200" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U200">
+        <v>54908</v>
+      </c>
+      <c r="V200">
+        <v>40421</v>
+      </c>
+    </row>
+    <row r="201" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U201">
+        <v>56105</v>
+      </c>
+      <c r="V201">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="202" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U202">
+        <v>60186</v>
+      </c>
+      <c r="V202">
+        <v>48860</v>
+      </c>
+    </row>
+    <row r="203" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U203">
+        <v>57748</v>
+      </c>
+      <c r="V203">
+        <v>47596</v>
+      </c>
+    </row>
+    <row r="204" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U204">
+        <v>62685</v>
+      </c>
+      <c r="V204">
+        <v>41371</v>
+      </c>
+    </row>
+    <row r="205" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U205">
+        <v>57566</v>
+      </c>
+      <c r="V205">
+        <v>47400</v>
+      </c>
+    </row>
+    <row r="206" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U206">
+        <v>58012</v>
+      </c>
+      <c r="V206">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="207" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U207">
+        <v>57768</v>
+      </c>
+      <c r="V207">
+        <v>42428</v>
+      </c>
+    </row>
+    <row r="208" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U208">
+        <v>58252</v>
+      </c>
+      <c r="V208">
+        <v>42560</v>
+      </c>
+    </row>
+    <row r="209" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U209">
+        <v>53676</v>
+      </c>
+      <c r="V209">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="210" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U210">
+        <v>53383</v>
+      </c>
+      <c r="V210">
+        <v>42726</v>
+      </c>
+    </row>
+    <row r="211" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U211">
+        <v>58523</v>
+      </c>
+      <c r="V211">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="212" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U212">
+        <v>60262</v>
+      </c>
+      <c r="V212">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="213" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U213">
+        <v>58625</v>
+      </c>
+      <c r="V213">
+        <v>40323</v>
+      </c>
+    </row>
+    <row r="214" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U214">
+        <v>56279</v>
+      </c>
+      <c r="V214">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="215" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U215">
+        <v>51218</v>
+      </c>
+      <c r="V215">
+        <v>51081</v>
+      </c>
+    </row>
+    <row r="216" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U216">
+        <v>60230</v>
+      </c>
+      <c r="V216">
+        <v>50362</v>
+      </c>
+    </row>
+    <row r="217" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U217">
+        <v>56894</v>
+      </c>
+      <c r="V217">
+        <v>49590</v>
+      </c>
+    </row>
+    <row r="218" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U218">
+        <v>59143</v>
+      </c>
+      <c r="V218">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="219" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U219">
+        <v>58791</v>
+      </c>
+      <c r="V219">
+        <v>49865</v>
+      </c>
+    </row>
+    <row r="220" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U220">
+        <v>61334</v>
+      </c>
+      <c r="V220">
+        <v>52570</v>
+      </c>
+    </row>
+    <row r="221" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U221">
+        <v>59281</v>
+      </c>
+      <c r="V221">
+        <v>41289</v>
+      </c>
+    </row>
+    <row r="222" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U222">
+        <v>56940</v>
+      </c>
+      <c r="V222">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="223" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U223">
+        <v>55667</v>
+      </c>
+      <c r="V223">
+        <v>43309</v>
+      </c>
+    </row>
+    <row r="224" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U224">
+        <v>55208</v>
+      </c>
+      <c r="V224">
+        <v>46906</v>
+      </c>
+    </row>
+    <row r="225" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U225">
+        <v>61937</v>
+      </c>
+      <c r="V225">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="226" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U226">
+        <v>58918</v>
+      </c>
+      <c r="V226">
+        <v>48060</v>
+      </c>
+    </row>
+    <row r="227" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U227">
+        <v>60556</v>
+      </c>
+      <c r="V227">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="228" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U228">
+        <v>57648</v>
+      </c>
+      <c r="V228">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="229" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U229">
+        <v>54293</v>
+      </c>
+      <c r="V229">
+        <v>49351</v>
+      </c>
+    </row>
+    <row r="230" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U230">
+        <v>53425</v>
+      </c>
+      <c r="V230">
+        <v>46375</v>
+      </c>
+    </row>
+    <row r="231" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U231">
+        <v>50585</v>
+      </c>
+      <c r="V231">
+        <v>36585</v>
+      </c>
+    </row>
+    <row r="232" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U232">
+        <v>59019</v>
+      </c>
+      <c r="V232">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="233" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U233">
+        <v>56026</v>
+      </c>
+      <c r="V233">
+        <v>54271</v>
+      </c>
+    </row>
+    <row r="234" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U234">
+        <v>54924</v>
+      </c>
+      <c r="V234">
+        <v>52350</v>
+      </c>
+    </row>
+    <row r="235" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U235">
+        <v>56449</v>
+      </c>
+      <c r="V235">
+        <v>42392</v>
+      </c>
+    </row>
+    <row r="236" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U236">
+        <v>60177</v>
+      </c>
+      <c r="V236">
+        <v>36808</v>
+      </c>
+    </row>
+    <row r="237" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U237">
+        <v>59486</v>
+      </c>
+      <c r="V237">
+        <v>34998</v>
+      </c>
+    </row>
+    <row r="238" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U238">
+        <v>56437</v>
+      </c>
+      <c r="V238">
+        <v>46732</v>
+      </c>
+    </row>
+    <row r="239" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U239">
+        <v>58628</v>
+      </c>
+      <c r="V239">
+        <v>39790</v>
+      </c>
+    </row>
+    <row r="240" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U240">
+        <v>58943</v>
+      </c>
+      <c r="V240">
+        <v>42411</v>
+      </c>
+    </row>
+    <row r="241" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U241">
+        <v>55974</v>
+      </c>
+      <c r="V241">
+        <v>49597</v>
+      </c>
+    </row>
+    <row r="242" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U242">
+        <v>55705</v>
+      </c>
+      <c r="V242">
+        <v>49086</v>
+      </c>
+    </row>
+    <row r="243" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U243">
+        <v>59205</v>
+      </c>
+      <c r="V243">
+        <v>46462</v>
+      </c>
+    </row>
+    <row r="244" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U244">
+        <v>57921</v>
+      </c>
+      <c r="V244">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="245" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U245">
+        <v>53660</v>
+      </c>
+      <c r="V245">
+        <v>38589</v>
+      </c>
+    </row>
+    <row r="246" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U246">
+        <v>55850</v>
+      </c>
+      <c r="V246">
+        <v>43655</v>
+      </c>
+    </row>
+    <row r="247" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U247">
+        <v>58393</v>
+      </c>
+      <c r="V247">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="248" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U248">
+        <v>55287</v>
+      </c>
+      <c r="V248">
+        <v>46396</v>
+      </c>
+    </row>
+    <row r="249" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U249">
+        <v>59906</v>
+      </c>
+      <c r="V249">
+        <v>38842</v>
+      </c>
+    </row>
+    <row r="250" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U250">
+        <v>58531</v>
+      </c>
+      <c r="V250">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="251" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U251">
+        <v>54239</v>
+      </c>
+      <c r="V251">
+        <v>39323</v>
+      </c>
+    </row>
+    <row r="252" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U252">
+        <v>59241</v>
+      </c>
+      <c r="V252">
+        <v>47469</v>
+      </c>
+    </row>
+    <row r="253" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U253">
+        <v>57579</v>
+      </c>
+      <c r="V253">
+        <v>49781</v>
+      </c>
+    </row>
+    <row r="254" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U254">
+        <v>56786</v>
+      </c>
+      <c r="V254">
+        <v>46739</v>
+      </c>
+    </row>
+    <row r="255" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U255">
+        <v>57669</v>
+      </c>
+      <c r="V255">
+        <v>47819</v>
+      </c>
+    </row>
+    <row r="256" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U256">
+        <v>59039</v>
+      </c>
+      <c r="V256">
+        <v>48794</v>
+      </c>
+    </row>
+    <row r="257" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U257">
+        <v>55731</v>
+      </c>
+      <c r="V257">
+        <v>47068</v>
+      </c>
+    </row>
+    <row r="258" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U258">
+        <v>56812</v>
+      </c>
+      <c r="V258">
+        <v>45935</v>
+      </c>
+    </row>
+    <row r="259" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U259">
+        <v>55773</v>
+      </c>
+      <c r="V259">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="260" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U260">
+        <v>56185</v>
+      </c>
+      <c r="V260">
+        <v>40165</v>
+      </c>
+    </row>
+    <row r="261" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U261">
+        <v>61376</v>
+      </c>
+      <c r="V261">
+        <v>51366</v>
+      </c>
+    </row>
+    <row r="262" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U262">
+        <v>56754</v>
+      </c>
+      <c r="V262">
+        <v>41622</v>
+      </c>
+    </row>
+    <row r="263" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U263">
+        <v>56372</v>
+      </c>
+      <c r="V263">
+        <v>47009</v>
+      </c>
+    </row>
+    <row r="264" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U264">
+        <v>53333</v>
+      </c>
+      <c r="V264">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="265" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U265">
+        <v>59418</v>
+      </c>
+      <c r="V265">
+        <v>49339</v>
+      </c>
+    </row>
+    <row r="266" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U266">
+        <v>56440</v>
+      </c>
+      <c r="V266">
+        <v>41643</v>
+      </c>
+    </row>
+    <row r="267" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U267">
+        <v>58281</v>
+      </c>
+      <c r="V267">
+        <v>39971</v>
+      </c>
+    </row>
+    <row r="268" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U268">
+        <v>57637</v>
+      </c>
+      <c r="V268">
+        <v>41645</v>
+      </c>
+    </row>
+    <row r="269" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U269">
+        <v>59435</v>
+      </c>
+      <c r="V269">
+        <v>40843</v>
+      </c>
+    </row>
+    <row r="270" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U270">
+        <v>53970</v>
+      </c>
+      <c r="V270">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="271" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U271">
+        <v>56788</v>
+      </c>
+      <c r="V271">
+        <v>42684</v>
+      </c>
+    </row>
+    <row r="272" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U272">
+        <v>60106</v>
+      </c>
+      <c r="V272">
+        <v>50833</v>
+      </c>
+    </row>
+    <row r="273" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U273">
+        <v>56534</v>
+      </c>
+      <c r="V273">
+        <v>42437</v>
+      </c>
+    </row>
+    <row r="274" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U274">
+        <v>58005</v>
+      </c>
+      <c r="V274">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="275" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U275">
+        <v>56257</v>
+      </c>
+      <c r="V275">
+        <v>43582</v>
+      </c>
+    </row>
+    <row r="276" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U276">
+        <v>55763</v>
+      </c>
+      <c r="V276">
+        <v>40227</v>
+      </c>
+    </row>
+    <row r="277" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U277">
+        <v>53646</v>
+      </c>
+      <c r="V277">
+        <v>49999</v>
+      </c>
+    </row>
+    <row r="278" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U278">
+        <v>56301</v>
+      </c>
+      <c r="V278">
+        <v>40565</v>
+      </c>
+    </row>
+    <row r="279" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U279">
+        <v>54739</v>
+      </c>
+      <c r="V279">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="280" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U280">
+        <v>56205</v>
+      </c>
+      <c r="V280">
+        <v>46125</v>
+      </c>
+    </row>
+    <row r="281" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U281">
+        <v>58961</v>
+      </c>
+      <c r="V281">
+        <v>37941</v>
+      </c>
+    </row>
+    <row r="282" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U282">
+        <v>60169</v>
+      </c>
+      <c r="V282">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="283" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U283">
+        <v>56825</v>
+      </c>
+      <c r="V283">
+        <v>42538</v>
+      </c>
+    </row>
+    <row r="284" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U284">
+        <v>60771</v>
+      </c>
+      <c r="V284">
+        <v>48225</v>
+      </c>
+    </row>
+    <row r="285" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U285">
+        <v>56058</v>
+      </c>
+      <c r="V285">
+        <v>39918</v>
+      </c>
+    </row>
+    <row r="286" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U286">
+        <v>57920</v>
+      </c>
+      <c r="V286">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="287" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U287">
+        <v>56209</v>
+      </c>
+      <c r="V287">
+        <v>41554</v>
+      </c>
+    </row>
+    <row r="288" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U288">
+        <v>60170</v>
+      </c>
+      <c r="V288">
+        <v>35219</v>
+      </c>
+    </row>
+    <row r="289" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U289">
+        <v>56332</v>
+      </c>
+      <c r="V289">
+        <v>45235</v>
+      </c>
+    </row>
+    <row r="290" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U290">
+        <v>58851</v>
+      </c>
+      <c r="V290">
+        <v>54930</v>
+      </c>
+    </row>
+    <row r="291" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U291">
+        <v>57942</v>
+      </c>
+      <c r="V291">
+        <v>42088</v>
+      </c>
+    </row>
+    <row r="292" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U292">
+        <v>58080</v>
+      </c>
+      <c r="V292">
+        <v>48507</v>
+      </c>
+    </row>
+    <row r="293" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U293">
+        <v>57097</v>
+      </c>
+      <c r="V293">
+        <v>46583</v>
+      </c>
+    </row>
+    <row r="294" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U294">
+        <v>59686</v>
+      </c>
+      <c r="V294">
+        <v>42379</v>
+      </c>
+    </row>
+    <row r="295" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U295">
+        <v>56974</v>
+      </c>
+      <c r="V295">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="296" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U296">
+        <v>58814</v>
+      </c>
+      <c r="V296">
+        <v>34106</v>
+      </c>
+    </row>
+    <row r="297" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U297">
+        <v>56901</v>
+      </c>
+      <c r="V297">
+        <v>50568</v>
+      </c>
+    </row>
+    <row r="298" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U298">
+        <v>60546</v>
+      </c>
+      <c r="V298">
+        <v>47929</v>
+      </c>
+    </row>
+    <row r="299" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U299">
+        <v>56414</v>
+      </c>
+      <c r="V299">
+        <v>49585</v>
+      </c>
+    </row>
+    <row r="300" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U300">
+        <v>58926</v>
+      </c>
+      <c r="V300">
+        <v>46829</v>
+      </c>
+    </row>
+    <row r="301" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U301">
+        <v>56128</v>
+      </c>
+      <c r="V301">
+        <v>51396</v>
+      </c>
+    </row>
+    <row r="302" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U302">
+        <v>54347</v>
+      </c>
+      <c r="V302">
+        <v>50272</v>
+      </c>
+    </row>
+    <row r="303" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U303">
+        <v>58643</v>
+      </c>
+      <c r="V303">
+        <v>47346</v>
+      </c>
+    </row>
+    <row r="304" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U304">
+        <v>56325</v>
+      </c>
+      <c r="V304">
+        <v>42710</v>
+      </c>
+    </row>
+    <row r="305" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U305">
+        <v>54239</v>
+      </c>
+      <c r="V305">
+        <v>49206</v>
+      </c>
+    </row>
+    <row r="306" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U306">
+        <v>56900</v>
+      </c>
+      <c r="V306">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="307" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U307">
+        <v>56912</v>
+      </c>
+      <c r="V307">
+        <v>47260</v>
+      </c>
+    </row>
+    <row r="308" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U308">
+        <v>54141</v>
+      </c>
+      <c r="V308">
+        <v>52986</v>
+      </c>
+    </row>
+    <row r="309" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U309">
+        <v>54197</v>
+      </c>
+      <c r="V309">
+        <v>51741</v>
+      </c>
+    </row>
+    <row r="310" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U310">
+        <v>57012</v>
+      </c>
+      <c r="V310">
+        <v>42137</v>
+      </c>
+    </row>
+    <row r="311" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U311">
+        <v>60495</v>
+      </c>
+      <c r="V311">
+        <v>50027</v>
+      </c>
+    </row>
+    <row r="312" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U312">
+        <v>56692</v>
+      </c>
+      <c r="V312">
+        <v>39912</v>
+      </c>
+    </row>
+    <row r="313" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U313">
+        <v>58744</v>
+      </c>
+      <c r="V313">
+        <v>35489</v>
+      </c>
+    </row>
+    <row r="314" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U314">
+        <v>55108</v>
+      </c>
+      <c r="V314">
+        <v>40423</v>
+      </c>
+    </row>
+    <row r="315" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U315">
+        <v>61201</v>
+      </c>
+      <c r="V315">
+        <v>44752</v>
+      </c>
+    </row>
+    <row r="316" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U316">
+        <v>53896</v>
+      </c>
+      <c r="V316">
+        <v>42498</v>
+      </c>
+    </row>
+    <row r="317" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U317">
+        <v>56040</v>
+      </c>
+      <c r="V317">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="318" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U318">
+        <v>60191</v>
+      </c>
+      <c r="V318">
+        <v>42041</v>
+      </c>
+    </row>
+    <row r="319" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U319">
+        <v>61333</v>
+      </c>
+      <c r="V319">
+        <v>39868</v>
+      </c>
+    </row>
+    <row r="320" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U320">
+        <v>57552</v>
+      </c>
+      <c r="V320">
+        <v>48860</v>
+      </c>
+    </row>
+    <row r="321" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U321">
+        <v>58199</v>
+      </c>
+      <c r="V321">
+        <v>37839</v>
+      </c>
+    </row>
+    <row r="322" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U322">
+        <v>57588</v>
+      </c>
+      <c r="V322">
+        <v>50510</v>
+      </c>
+    </row>
+    <row r="323" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U323">
+        <v>58103</v>
+      </c>
+      <c r="V323">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="324" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U324">
+        <v>54368</v>
+      </c>
+      <c r="V324">
+        <v>39222</v>
+      </c>
+    </row>
+    <row r="325" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U325">
+        <v>56636</v>
+      </c>
+      <c r="V325">
+        <v>42821</v>
+      </c>
+    </row>
+    <row r="326" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U326">
+        <v>59120</v>
+      </c>
+      <c r="V326">
+        <v>47078</v>
+      </c>
+    </row>
+    <row r="327" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U327">
+        <v>56863</v>
+      </c>
+      <c r="V327">
+        <v>37033</v>
+      </c>
+    </row>
+    <row r="328" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U328">
+        <v>58800</v>
+      </c>
+      <c r="V328">
+        <v>40996</v>
+      </c>
+    </row>
+    <row r="329" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U329">
+        <v>58946</v>
+      </c>
+      <c r="V329">
+        <v>47342</v>
+      </c>
+    </row>
+    <row r="330" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U330">
+        <v>61505</v>
+      </c>
+      <c r="V330">
+        <v>34411</v>
+      </c>
+    </row>
+    <row r="331" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U331">
+        <v>56916</v>
+      </c>
+      <c r="V331">
+        <v>53750</v>
+      </c>
+    </row>
+    <row r="332" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U332">
+        <v>56287</v>
+      </c>
+      <c r="V332">
+        <v>41987</v>
+      </c>
+    </row>
+    <row r="333" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U333">
+        <v>55852</v>
+      </c>
+      <c r="V333">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="334" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U334">
+        <v>53372</v>
+      </c>
+      <c r="V334">
+        <v>43246</v>
+      </c>
+    </row>
+    <row r="335" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U335">
+        <v>60029</v>
+      </c>
+      <c r="V335">
+        <v>50754</v>
+      </c>
+    </row>
+    <row r="336" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U336">
+        <v>56193</v>
+      </c>
+      <c r="V336">
+        <v>49939</v>
+      </c>
+    </row>
+    <row r="337" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U337">
+        <v>58886</v>
+      </c>
+      <c r="V337">
+        <v>41003</v>
+      </c>
+    </row>
+    <row r="338" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U338">
+        <v>55839</v>
+      </c>
+      <c r="V338">
+        <v>52132</v>
+      </c>
+    </row>
+    <row r="339" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U339">
+        <v>61152</v>
+      </c>
+      <c r="V339">
+        <v>34680</v>
+      </c>
+    </row>
+    <row r="340" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U340">
+        <v>55122</v>
+      </c>
+      <c r="V340">
+        <v>41541</v>
+      </c>
+    </row>
+    <row r="341" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U341">
+        <v>58539</v>
+      </c>
+      <c r="V341">
+        <v>42505</v>
+      </c>
+    </row>
+    <row r="342" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U342">
+        <v>59866</v>
+      </c>
+      <c r="V342">
+        <v>46693</v>
+      </c>
+    </row>
+    <row r="343" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U343">
+        <v>58298</v>
+      </c>
+      <c r="V343">
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="344" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U344">
+        <v>57224</v>
+      </c>
+      <c r="V344">
+        <v>43163</v>
+      </c>
+    </row>
+    <row r="345" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U345">
+        <v>51806</v>
+      </c>
+      <c r="V345">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="346" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U346">
+        <v>58455</v>
+      </c>
+      <c r="V346">
+        <v>38140</v>
+      </c>
+    </row>
+    <row r="347" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U347">
+        <v>56518</v>
+      </c>
+      <c r="V347">
+        <v>50035</v>
+      </c>
+    </row>
+    <row r="348" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U348">
+        <v>52355</v>
+      </c>
+      <c r="V348">
+        <v>36202</v>
+      </c>
+    </row>
+    <row r="349" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U349">
+        <v>59695</v>
+      </c>
+      <c r="V349">
+        <v>43261</v>
+      </c>
+    </row>
+    <row r="350" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U350">
+        <v>57453</v>
+      </c>
+      <c r="V350">
+        <v>40028</v>
+      </c>
+    </row>
+    <row r="351" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U351">
+        <v>55495</v>
+      </c>
+      <c r="V351">
+        <v>36292</v>
+      </c>
+    </row>
+    <row r="352" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U352">
+        <v>54286</v>
+      </c>
+      <c r="V352">
+        <v>37919</v>
+      </c>
+    </row>
+    <row r="353" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U353">
+        <v>60266</v>
+      </c>
+      <c r="V353">
+        <v>51189</v>
+      </c>
+    </row>
+    <row r="354" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U354">
+        <v>60554</v>
+      </c>
+      <c r="V354">
+        <v>41023</v>
+      </c>
+    </row>
+    <row r="355" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U355">
+        <v>59306</v>
+      </c>
+      <c r="V355">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="356" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U356">
+        <v>58474</v>
+      </c>
+      <c r="V356">
+        <v>42073</v>
+      </c>
+    </row>
+    <row r="357" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U357">
+        <v>56209</v>
+      </c>
+      <c r="V357">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="358" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U358">
+        <v>54361</v>
+      </c>
+      <c r="V358">
+        <v>41745</v>
+      </c>
+    </row>
+    <row r="359" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U359">
+        <v>57455</v>
+      </c>
+      <c r="V359">
+        <v>46369</v>
+      </c>
+    </row>
+    <row r="360" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U360">
+        <v>59101</v>
+      </c>
+      <c r="V360">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="361" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U361">
+        <v>60943</v>
+      </c>
+      <c r="V361">
+        <v>42742</v>
+      </c>
+    </row>
+    <row r="362" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U362">
+        <v>56125</v>
+      </c>
+      <c r="V362">
+        <v>39092</v>
+      </c>
+    </row>
+    <row r="363" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U363">
+        <v>57150</v>
+      </c>
+      <c r="V363">
+        <v>40676</v>
+      </c>
+    </row>
+    <row r="364" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U364">
+        <v>56499</v>
+      </c>
+      <c r="V364">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="365" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U365">
+        <v>56777</v>
+      </c>
+      <c r="V365">
+        <v>49185</v>
+      </c>
+    </row>
+    <row r="366" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U366">
+        <v>56961</v>
+      </c>
+      <c r="V366">
+        <v>52890</v>
+      </c>
+    </row>
+    <row r="367" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U367">
+        <v>54324</v>
+      </c>
+      <c r="V367">
+        <v>43001</v>
+      </c>
+    </row>
+    <row r="368" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U368">
+        <v>59283</v>
+      </c>
+      <c r="V368">
+        <v>43312</v>
+      </c>
+    </row>
+    <row r="369" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U369">
+        <v>58391</v>
+      </c>
+      <c r="V369">
+        <v>49526</v>
+      </c>
+    </row>
+    <row r="370" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U370">
+        <v>56431</v>
+      </c>
+      <c r="V370">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="371" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U371">
+        <v>58222</v>
+      </c>
+      <c r="V371">
+        <v>39157</v>
+      </c>
+    </row>
+    <row r="372" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U372">
+        <v>55851</v>
+      </c>
+      <c r="V372">
+        <v>39940</v>
+      </c>
+    </row>
+    <row r="373" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U373">
+        <v>57968</v>
+      </c>
+      <c r="V373">
+        <v>46543</v>
+      </c>
+    </row>
+    <row r="374" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U374">
+        <v>54017</v>
+      </c>
+      <c r="V374">
+        <v>42001</v>
+      </c>
+    </row>
+    <row r="375" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U375">
+        <v>56953</v>
+      </c>
+      <c r="V375">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="376" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U376">
+        <v>56806</v>
+      </c>
+      <c r="V376">
+        <v>48406</v>
+      </c>
+    </row>
+    <row r="377" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U377">
+        <v>55022</v>
+      </c>
+      <c r="V377">
+        <v>40803</v>
+      </c>
+    </row>
+    <row r="378" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U378">
+        <v>59092</v>
+      </c>
+      <c r="V378">
+        <v>43821</v>
+      </c>
+    </row>
+    <row r="379" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U379">
+        <v>58926</v>
+      </c>
+      <c r="V379">
+        <v>47863</v>
+      </c>
+    </row>
+    <row r="380" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U380">
+        <v>55743</v>
+      </c>
+      <c r="V380">
+        <v>51827</v>
+      </c>
+    </row>
+    <row r="381" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U381">
+        <v>55563</v>
+      </c>
+      <c r="V381">
+        <v>46159</v>
+      </c>
+    </row>
+    <row r="382" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U382">
+        <v>59114</v>
+      </c>
+      <c r="V382">
+        <v>39099</v>
+      </c>
+    </row>
+    <row r="383" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U383">
+        <v>60798</v>
+      </c>
+      <c r="V383">
+        <v>48499</v>
+      </c>
+    </row>
+    <row r="384" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U384">
+        <v>55912</v>
+      </c>
+      <c r="V384">
+        <v>43204</v>
+      </c>
+    </row>
+    <row r="385" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U385">
+        <v>59953</v>
+      </c>
+      <c r="V385">
+        <v>50461</v>
+      </c>
+    </row>
+    <row r="386" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U386">
+        <v>56779</v>
+      </c>
+      <c r="V386">
+        <v>49190</v>
+      </c>
+    </row>
+    <row r="387" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U387">
+        <v>59097</v>
+      </c>
+      <c r="V387">
+        <v>52174</v>
+      </c>
+    </row>
+    <row r="388" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U388">
+        <v>55506</v>
+      </c>
+      <c r="V388">
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="389" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U389">
+        <v>56696</v>
+      </c>
+      <c r="V389">
+        <v>40102</v>
+      </c>
+    </row>
+    <row r="390" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U390">
+        <v>56782</v>
+      </c>
+      <c r="V390">
+        <v>47818</v>
+      </c>
+    </row>
+    <row r="391" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U391">
+        <v>57734</v>
+      </c>
+      <c r="V391">
+        <v>36863</v>
+      </c>
+    </row>
+    <row r="392" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U392">
+        <v>58905</v>
+      </c>
+      <c r="V392">
+        <v>40681</v>
+      </c>
+    </row>
+    <row r="393" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U393">
+        <v>57088</v>
+      </c>
+      <c r="V393">
+        <v>47891</v>
+      </c>
+    </row>
+    <row r="394" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U394">
+        <v>60118</v>
+      </c>
+      <c r="V394">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="395" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U395">
+        <v>62152</v>
+      </c>
+      <c r="V395">
+        <v>49501</v>
+      </c>
+    </row>
+    <row r="396" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U396">
+        <v>59233</v>
+      </c>
+      <c r="V396">
+        <v>38339</v>
+      </c>
+    </row>
+    <row r="397" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U397">
+        <v>60628</v>
+      </c>
+      <c r="V397">
+        <v>47748</v>
+      </c>
+    </row>
+    <row r="398" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U398">
+        <v>53855</v>
+      </c>
+      <c r="V398">
+        <v>53828</v>
+      </c>
+    </row>
+    <row r="399" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U399">
+        <v>54342</v>
+      </c>
+      <c r="V399">
+        <v>41508</v>
+      </c>
+    </row>
+    <row r="400" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U400">
+        <v>58686</v>
+      </c>
+      <c r="V400">
+        <v>41716</v>
+      </c>
+    </row>
+    <row r="401" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U401">
+        <v>56923</v>
+      </c>
+      <c r="V401">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="402" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U402">
+        <v>59720</v>
+      </c>
+      <c r="V402">
+        <v>36974</v>
+      </c>
+    </row>
+    <row r="403" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U403">
+        <v>56444</v>
+      </c>
+      <c r="V403">
+        <v>39961</v>
+      </c>
+    </row>
+    <row r="404" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U404">
+        <v>57772</v>
+      </c>
+      <c r="V404">
+        <v>50657</v>
+      </c>
+    </row>
+    <row r="405" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U405">
+        <v>56634</v>
+      </c>
+      <c r="V405">
+        <v>36529</v>
+      </c>
+    </row>
+    <row r="406" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U406">
+        <v>59539</v>
+      </c>
+      <c r="V406">
+        <v>41468</v>
+      </c>
+    </row>
+    <row r="407" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U407">
+        <v>58101</v>
+      </c>
+      <c r="V407">
+        <v>41076</v>
+      </c>
+    </row>
+    <row r="408" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U408">
+        <v>54233</v>
+      </c>
+      <c r="V408">
+        <v>37578</v>
+      </c>
+    </row>
+    <row r="409" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U409">
+        <v>52555</v>
+      </c>
+      <c r="V409">
+        <v>43214</v>
+      </c>
+    </row>
+    <row r="410" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U410">
+        <v>56282</v>
+      </c>
+      <c r="V410">
+        <v>50045</v>
+      </c>
+    </row>
+    <row r="411" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U411">
+        <v>59224</v>
+      </c>
+      <c r="V411">
+        <v>36677</v>
+      </c>
+    </row>
+    <row r="412" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U412">
+        <v>58827</v>
+      </c>
+      <c r="V412">
+        <v>40264</v>
+      </c>
+    </row>
+    <row r="413" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U413">
+        <v>62059</v>
+      </c>
+      <c r="V413">
+        <v>49426</v>
+      </c>
+    </row>
+    <row r="414" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U414">
+        <v>59031</v>
+      </c>
+      <c r="V414">
+        <v>48255</v>
+      </c>
+    </row>
+    <row r="415" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U415">
+        <v>59437</v>
+      </c>
+      <c r="V415">
+        <v>51640</v>
+      </c>
+    </row>
+    <row r="416" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U416">
+        <v>58715</v>
+      </c>
+      <c r="V416">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="417" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U417">
+        <v>56441</v>
+      </c>
+      <c r="V417">
+        <v>46870</v>
+      </c>
+    </row>
+    <row r="418" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U418">
+        <v>57192</v>
+      </c>
+      <c r="V418">
+        <v>39747</v>
+      </c>
+    </row>
+    <row r="419" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U419">
+        <v>54047</v>
+      </c>
+      <c r="V419">
+        <v>52068</v>
+      </c>
+    </row>
+    <row r="420" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U420">
+        <v>53416</v>
+      </c>
+      <c r="V420">
+        <v>47662</v>
+      </c>
+    </row>
+    <row r="421" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U421">
+        <v>55843</v>
+      </c>
+      <c r="V421">
+        <v>38394</v>
+      </c>
+    </row>
+    <row r="422" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U422">
+        <v>56300</v>
+      </c>
+      <c r="V422">
+        <v>51064</v>
+      </c>
+    </row>
+    <row r="423" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U423">
+        <v>62170</v>
+      </c>
+      <c r="V423">
+        <v>40355</v>
+      </c>
+    </row>
+    <row r="424" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U424">
+        <v>56918</v>
+      </c>
+      <c r="V424">
+        <v>49962</v>
+      </c>
+    </row>
+    <row r="425" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U425">
+        <v>55128</v>
+      </c>
+      <c r="V425">
+        <v>38586</v>
+      </c>
+    </row>
+    <row r="426" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U426">
+        <v>57410</v>
+      </c>
+      <c r="V426">
+        <v>49531</v>
+      </c>
+    </row>
+    <row r="427" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U427">
+        <v>51221</v>
+      </c>
+      <c r="V427">
+        <v>49555</v>
+      </c>
+    </row>
+    <row r="428" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U428">
+        <v>59033</v>
+      </c>
+      <c r="V428">
+        <v>34267</v>
+      </c>
+    </row>
+    <row r="429" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U429">
+        <v>54640</v>
+      </c>
+      <c r="V429">
+        <v>43526</v>
+      </c>
+    </row>
+    <row r="430" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U430">
+        <v>57960</v>
+      </c>
+      <c r="V430">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="431" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U431">
+        <v>59165</v>
+      </c>
+      <c r="V431">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="432" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U432">
+        <v>53708</v>
+      </c>
+      <c r="V432">
+        <v>38114</v>
+      </c>
+    </row>
+    <row r="433" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U433">
+        <v>58931</v>
+      </c>
+      <c r="V433">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="434" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U434">
+        <v>57798</v>
+      </c>
+      <c r="V434">
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="435" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U435">
+        <v>56283</v>
+      </c>
+      <c r="V435">
+        <v>38568</v>
+      </c>
+    </row>
+    <row r="436" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U436">
+        <v>60814</v>
+      </c>
+      <c r="V436">
+        <v>46394</v>
+      </c>
+    </row>
+    <row r="437" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U437">
+        <v>58844</v>
+      </c>
+      <c r="V437">
+        <v>48559</v>
+      </c>
+    </row>
+    <row r="438" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U438">
+        <v>56278</v>
+      </c>
+      <c r="V438">
+        <v>40936</v>
+      </c>
+    </row>
+    <row r="439" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U439">
+        <v>57183</v>
+      </c>
+      <c r="V439">
+        <v>54018</v>
+      </c>
+    </row>
+    <row r="440" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U440">
+        <v>55803</v>
+      </c>
+      <c r="V440">
+        <v>41643</v>
+      </c>
+    </row>
+    <row r="441" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U441">
+        <v>59050</v>
+      </c>
+      <c r="V441">
+        <v>48804</v>
+      </c>
+    </row>
+    <row r="442" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U442">
+        <v>57309</v>
+      </c>
+      <c r="V442">
+        <v>52501</v>
+      </c>
+    </row>
+    <row r="443" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U443">
+        <v>56058</v>
+      </c>
+      <c r="V443">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="444" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U444">
+        <v>55012</v>
+      </c>
+      <c r="V444">
+        <v>46409</v>
+      </c>
+    </row>
+    <row r="445" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U445">
+        <v>55363</v>
+      </c>
+      <c r="V445">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="446" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U446">
+        <v>58057</v>
+      </c>
+      <c r="V446">
+        <v>49877</v>
+      </c>
+    </row>
+    <row r="447" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U447">
+        <v>52384</v>
+      </c>
+      <c r="V447">
+        <v>49464</v>
+      </c>
+    </row>
+    <row r="448" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U448">
+        <v>56533</v>
+      </c>
+      <c r="V448">
+        <v>39422</v>
+      </c>
+    </row>
+    <row r="449" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U449">
+        <v>58081</v>
+      </c>
+      <c r="V449">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="450" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U450">
+        <v>58542</v>
+      </c>
+      <c r="V450">
+        <v>40117</v>
+      </c>
+    </row>
+    <row r="451" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U451">
+        <v>61568</v>
+      </c>
+      <c r="V451">
+        <v>37290</v>
+      </c>
+    </row>
+    <row r="452" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U452">
+        <v>56297</v>
+      </c>
+      <c r="V452">
+        <v>41545</v>
+      </c>
+    </row>
+    <row r="453" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U453">
+        <v>53383</v>
+      </c>
+      <c r="V453">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="454" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U454">
+        <v>58875</v>
+      </c>
+      <c r="V454">
+        <v>51124</v>
+      </c>
+    </row>
+    <row r="455" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U455">
+        <v>60384</v>
+      </c>
+      <c r="V455">
+        <v>52451</v>
+      </c>
+    </row>
+    <row r="456" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U456">
+        <v>56953</v>
+      </c>
+      <c r="V456">
+        <v>40886</v>
+      </c>
+    </row>
+    <row r="457" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U457">
+        <v>60587</v>
+      </c>
+      <c r="V457">
+        <v>37753</v>
+      </c>
+    </row>
+    <row r="458" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U458">
+        <v>60761</v>
+      </c>
+      <c r="V458">
+        <v>37324</v>
+      </c>
+    </row>
+    <row r="459" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U459">
+        <v>60251</v>
+      </c>
+      <c r="V459">
+        <v>49007</v>
+      </c>
+    </row>
+    <row r="460" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U460">
+        <v>59168</v>
+      </c>
+      <c r="V460">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="461" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U461">
+        <v>54960</v>
+      </c>
+      <c r="V461">
+        <v>46899</v>
+      </c>
+    </row>
+    <row r="462" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U462">
+        <v>59490</v>
+      </c>
+      <c r="V462">
+        <v>38983</v>
+      </c>
+    </row>
+    <row r="463" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U463">
+        <v>58513</v>
+      </c>
+      <c r="V463">
+        <v>40091</v>
+      </c>
+    </row>
+    <row r="464" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U464">
+        <v>55765</v>
+      </c>
+      <c r="V464">
+        <v>47168</v>
+      </c>
+    </row>
+    <row r="465" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U465">
+        <v>57091</v>
+      </c>
+      <c r="V465">
+        <v>41223</v>
+      </c>
+    </row>
+    <row r="466" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U466">
+        <v>56764</v>
+      </c>
+      <c r="V466">
+        <v>50736</v>
+      </c>
+    </row>
+    <row r="467" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U467">
+        <v>58014</v>
+      </c>
+      <c r="V467">
+        <v>40353</v>
+      </c>
+    </row>
+    <row r="468" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U468">
+        <v>58923</v>
+      </c>
+      <c r="V468">
+        <v>37156</v>
+      </c>
+    </row>
+    <row r="469" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U469">
+        <v>57028</v>
+      </c>
+      <c r="V469">
+        <v>49492</v>
+      </c>
+    </row>
+    <row r="470" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U470">
+        <v>58639</v>
+      </c>
+      <c r="V470">
+        <v>48921</v>
+      </c>
+    </row>
+    <row r="471" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U471">
+        <v>51187</v>
+      </c>
+      <c r="V471">
+        <v>54254</v>
+      </c>
+    </row>
+    <row r="472" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U472">
+        <v>59921</v>
+      </c>
+      <c r="V472">
+        <v>51321</v>
+      </c>
+    </row>
+    <row r="473" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U473">
+        <v>61138</v>
+      </c>
+      <c r="V473">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="474" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U474">
+        <v>53681</v>
+      </c>
+      <c r="V474">
+        <v>35060</v>
+      </c>
+    </row>
+    <row r="475" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U475">
+        <v>54960</v>
+      </c>
+      <c r="V475">
+        <v>35525</v>
+      </c>
+    </row>
+    <row r="476" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U476">
+        <v>59662</v>
+      </c>
+      <c r="V476">
+        <v>34240</v>
+      </c>
+    </row>
+    <row r="477" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U477">
+        <v>53444</v>
+      </c>
+      <c r="V477">
+        <v>40663</v>
+      </c>
+    </row>
+    <row r="478" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U478">
+        <v>56322</v>
+      </c>
+      <c r="V478">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="479" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U479">
+        <v>59343</v>
+      </c>
+      <c r="V479">
+        <v>38052</v>
+      </c>
+    </row>
+    <row r="480" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U480">
+        <v>62214</v>
+      </c>
+      <c r="V480">
+        <v>41394</v>
+      </c>
+    </row>
+    <row r="481" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U481">
+        <v>53374</v>
+      </c>
+      <c r="V481">
+        <v>50287</v>
+      </c>
+    </row>
+    <row r="482" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U482">
+        <v>56075</v>
+      </c>
+      <c r="V482">
+        <v>52849</v>
+      </c>
+    </row>
+    <row r="483" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U483">
+        <v>57970</v>
+      </c>
+      <c r="V483">
+        <v>51355</v>
+      </c>
+    </row>
+    <row r="484" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U484">
+        <v>56253</v>
+      </c>
+      <c r="V484">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="485" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U485">
+        <v>55866</v>
+      </c>
+      <c r="V485">
+        <v>40377</v>
+      </c>
+    </row>
+    <row r="486" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U486">
+        <v>57187</v>
+      </c>
+      <c r="V486">
+        <v>48694</v>
+      </c>
+    </row>
+    <row r="487" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U487">
+        <v>59421</v>
+      </c>
+      <c r="V487">
+        <v>46695</v>
+      </c>
+    </row>
+    <row r="488" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U488">
+        <v>56396</v>
+      </c>
+      <c r="V488">
+        <v>46563</v>
+      </c>
+    </row>
+    <row r="489" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U489">
+        <v>54557</v>
+      </c>
+      <c r="V489">
+        <v>42351</v>
+      </c>
+    </row>
+    <row r="490" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U490">
+        <v>55868</v>
+      </c>
+      <c r="V490">
+        <v>48539</v>
+      </c>
+    </row>
+    <row r="491" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U491">
+        <v>53841</v>
+      </c>
+      <c r="V491">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="492" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U492">
+        <v>58054</v>
+      </c>
+      <c r="V492">
+        <v>52095</v>
+      </c>
+    </row>
+    <row r="493" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U493">
+        <v>58999</v>
+      </c>
+      <c r="V493">
+        <v>50737</v>
+      </c>
+    </row>
+    <row r="494" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U494">
+        <v>55875</v>
+      </c>
+      <c r="V494">
+        <v>51648</v>
+      </c>
+    </row>
+    <row r="495" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U495">
+        <v>59901</v>
+      </c>
+      <c r="V495">
+        <v>47272</v>
+      </c>
+    </row>
+    <row r="496" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U496">
+        <v>60562</v>
+      </c>
+      <c r="V496">
+        <v>46949</v>
+      </c>
+    </row>
+    <row r="497" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U497">
+        <v>57099</v>
+      </c>
+      <c r="V497">
+        <v>41029</v>
+      </c>
+    </row>
+    <row r="498" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U498">
+        <v>52798</v>
+      </c>
+      <c r="V498">
+        <v>47861</v>
+      </c>
+    </row>
+    <row r="499" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U499">
+        <v>61435</v>
+      </c>
+      <c r="V499">
+        <v>50457</v>
+      </c>
+    </row>
+    <row r="500" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U500">
+        <v>59778</v>
+      </c>
+      <c r="V500">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="501" spans="21:22" x14ac:dyDescent="0.45">
+      <c r="U501">
+        <v>54293</v>
+      </c>
+      <c r="V501">
+        <v>40406</v>
       </c>
     </row>
   </sheetData>

--- a/hieu/scratch.xlsx
+++ b/hieu/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihoan\local\workspace\github\IncrementalMining\hieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D280DF-38EC-4111-A05F-FB778BEA79B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC72BC6E-07F2-42FB-B294-DDCFCCC7B418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,10 +166,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -212,15 +212,24 @@
                 <c:pt idx="13">
                   <c:v>500</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$15</c:f>
+              <c:f>Sheet1!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>57342</c:v>
                 </c:pt>
@@ -262,6 +271,15 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>60746</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,10 +329,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -357,15 +375,24 @@
                 <c:pt idx="13">
                   <c:v>500</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$15</c:f>
+              <c:f>Sheet1!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>55677</c:v>
                 </c:pt>
@@ -407,6 +434,15 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>59361</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61511</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2829,7 +2865,7 @@
   <dimension ref="B1:V501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3211,6 +3247,9 @@
       <c r="B18">
         <v>1500</v>
       </c>
+      <c r="C18">
+        <v>59545</v>
+      </c>
       <c r="D18">
         <v>60168</v>
       </c>
@@ -7089,4 +7128,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/hieu/scratch.xlsx
+++ b/hieu/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihoan\local\workspace\github\IncrementalMining\hieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC72BC6E-07F2-42FB-B294-DDCFCCC7B418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF207F8-1505-447E-B903-7E4BDF222659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$V$2:$V$501</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$U$2:$U$501</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$U$2:$U$501</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$V$2:$V$501</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -687,7 +687,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -721,7 +721,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2865,7 +2865,7 @@
   <dimension ref="B1:V501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3261,6 +3261,15 @@
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>2000</v>
+      </c>
+      <c r="C19">
+        <v>62900</v>
+      </c>
+      <c r="D19">
+        <v>60715</v>
+      </c>
       <c r="U19">
         <v>55761</v>
       </c>
@@ -3269,6 +3278,12 @@
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>2500</v>
+      </c>
+      <c r="D20">
+        <v>63672</v>
+      </c>
       <c r="U20">
         <v>58016</v>
       </c>
@@ -3277,6 +3292,12 @@
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>3000</v>
+      </c>
+      <c r="D21">
+        <v>59492</v>
+      </c>
       <c r="U21">
         <v>55896</v>
       </c>
@@ -3285,6 +3306,12 @@
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>4000</v>
+      </c>
+      <c r="D22">
+        <v>60246</v>
+      </c>
       <c r="U22">
         <v>57959</v>
       </c>

--- a/hieu/scratch.xlsx
+++ b/hieu/scratch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hihoan\local\workspace\github\IncrementalMining\hieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/hihoan_microsoft_com/Documents/workspace/github/IncrementalMining/hieu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF207F8-1505-447E-B903-7E4BDF222659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7DF207F8-1505-447E-B903-7E4BDF222659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D9CB18-4683-4842-80B6-1ECA380459A4}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>#iter</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>dummy 1k</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -2865,7 +2868,7 @@
   <dimension ref="B1:V501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3281,6 +3284,9 @@
       <c r="B20">
         <v>2500</v>
       </c>
+      <c r="C20">
+        <v>62221</v>
+      </c>
       <c r="D20">
         <v>63672</v>
       </c>
@@ -3295,6 +3301,9 @@
       <c r="B21">
         <v>3000</v>
       </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
       <c r="D21">
         <v>59492</v>
       </c>
@@ -3320,6 +3329,12 @@
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>5000</v>
+      </c>
+      <c r="D23">
+        <v>60495</v>
+      </c>
       <c r="U23">
         <v>57885</v>
       </c>
